--- a/data/trans_orig/p64d1_r-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5537D3FC-EE86-4A33-B952-08FC801505AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEAA7A6-9959-4501-B8A9-486E325CAA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{358A86F1-4C77-4737-B335-2AD8F2DFCC59}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{534026C6-B71A-48C4-8D55-E13C8E14AFA9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>18,34%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>48,03%</t>
   </si>
   <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>81,66%</t>
   </si>
   <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>51,97%</t>
   </si>
   <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
   </si>
   <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>27,39%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>31,38%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
   </si>
   <si>
     <t>68,62%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>21,97%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
   </si>
   <si>
     <t>41,9%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
   </si>
   <si>
     <t>30,17%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>58,1%</t>
   </si>
   <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
   </si>
   <si>
     <t>69,83%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>17,14%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,103 @@
     <t>28,66%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
   </si>
   <si>
     <t>42,93%</t>
   </si>
   <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
   </si>
   <si>
     <t>35,55%</t>
   </si>
   <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>71,34%</t>
   </si>
   <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
   </si>
   <si>
     <t>57,07%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
   </si>
   <si>
     <t>64,45%</t>
   </si>
   <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>25,83%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
+    <t>35,82%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>76,43%</t>
   </si>
   <si>
-    <t>74,17%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>64,18%</t>
   </si>
   <si>
     <t>69,92%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B3372D-9FF9-4EEB-B283-DF574DE4E2DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC25C2A-01B1-4AD8-B41D-61CE83741AF8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1721,10 +1721,10 @@
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>798</v>
@@ -1733,13 +1733,13 @@
         <v>571250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
         <v>1227</v>
@@ -1775,7 +1775,7 @@
         <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>1235</v>
@@ -1784,10 +1784,10 @@
         <v>930003</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>119</v>

--- a/data/trans_orig/p64d1_r-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEAA7A6-9959-4501-B8A9-486E325CAA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD7C9E83-954E-4F7C-8BA9-0A1509C67B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{534026C6-B71A-48C4-8D55-E13C8E14AFA9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9452B06D-2FE6-452F-8965-E83BDF21DF82}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>27,39%</t>
@@ -188,7 +188,7 @@
     <t>72,11%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>21,97%</t>
@@ -245,7 +245,7 @@
     <t>74,65%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>17,14%</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC25C2A-01B1-4AD8-B41D-61CE83741AF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517098F5-901F-473A-B229-F442AEBEA2C4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/p64d1_r-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD7C9E83-954E-4F7C-8BA9-0A1509C67B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4A64F3-FDB8-4073-B976-A2F6EE149BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9452B06D-2FE6-452F-8965-E83BDF21DF82}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8FCD9EB-E687-4508-B38F-469D1D4FF3A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
-    <t>Población que se traslada al trabajo o actividad habitual de forma activa en 2023 (Tasa respuesta: 42,39%)</t>
+    <t>Población según si se traslada al trabajo o actividad habitual de forma activa en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>18,34%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
   </si>
   <si>
     <t>48,03%</t>
   </si>
   <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>81,66%</t>
   </si>
   <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>51,97%</t>
   </si>
   <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
   </si>
   <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>27,39%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
   </si>
   <si>
     <t>31,38%</t>
   </si>
   <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
   </si>
   <si>
     <t>68,62%</t>
   </si>
   <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>21,97%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>41,9%</t>
   </si>
   <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
   </si>
   <si>
     <t>30,17%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>58,1%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>69,83%</t>
   </si>
   <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>17,14%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,103 @@
     <t>28,66%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>42,93%</t>
   </si>
   <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
   </si>
   <si>
     <t>35,55%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>71,34%</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>57,07%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
   </si>
   <si>
     <t>64,45%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
+    <t>25,83%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>35,82%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>76,43%</t>
   </si>
   <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>74,17%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>64,18%</t>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>69,92%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517098F5-901F-473A-B229-F442AEBEA2C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A807673-8055-4C31-B688-E8A8C5102A62}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1721,10 +1721,10 @@
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>798</v>
@@ -1733,13 +1733,13 @@
         <v>571250</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M19" s="7">
         <v>1227</v>
@@ -1775,7 +1775,7 @@
         <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>1235</v>
@@ -1784,10 +1784,10 @@
         <v>930003</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>119</v>

--- a/data/trans_orig/p64d1_r-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4A64F3-FDB8-4073-B976-A2F6EE149BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBB277D-75D9-4A67-8C0E-83E36F72FC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8FCD9EB-E687-4508-B38F-469D1D4FF3A4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D4A8BA1E-F8AF-495E-ACED-BB72EFB90FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si se traslada al trabajo o actividad habitual de forma activa en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -65,346 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A807673-8055-4C31-B688-E8A8C5102A62}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52FA72-E23B-4BF8-AB15-56E29EC9E092}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D4" s="7">
-        <v>9312</v>
+        <v>83889</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="I4" s="7">
-        <v>21660</v>
+        <v>98537</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="N4" s="7">
-        <v>30971</v>
+        <v>182427</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="D5" s="7">
-        <v>41464</v>
+        <v>249186</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="I5" s="7">
-        <v>23434</v>
+        <v>159528</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>72</v>
+        <v>484</v>
       </c>
       <c r="N5" s="7">
-        <v>64899</v>
+        <v>408712</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="D6" s="7">
-        <v>50776</v>
+        <v>333075</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>71</v>
+        <v>412</v>
       </c>
       <c r="I6" s="7">
-        <v>45094</v>
+        <v>258065</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>121</v>
+        <v>750</v>
       </c>
       <c r="N6" s="7">
-        <v>95870</v>
+        <v>591139</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="D7" s="7">
-        <v>80164</v>
+        <v>132048</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="I7" s="7">
-        <v>83732</v>
+        <v>166723</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>217</v>
+        <v>393</v>
       </c>
       <c r="N7" s="7">
-        <v>163896</v>
+        <v>298771</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>203</v>
+        <v>392</v>
       </c>
       <c r="D8" s="7">
-        <v>212553</v>
+        <v>673436</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="I8" s="7">
-        <v>145891</v>
+        <v>234158</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>412</v>
+        <v>732</v>
       </c>
       <c r="N8" s="7">
-        <v>358444</v>
+        <v>907593</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>288</v>
+        <v>529</v>
       </c>
       <c r="D9" s="7">
-        <v>292717</v>
+        <v>805484</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>341</v>
+        <v>596</v>
       </c>
       <c r="I9" s="7">
-        <v>229623</v>
+        <v>400881</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>629</v>
+        <v>1125</v>
       </c>
       <c r="N9" s="7">
-        <v>522340</v>
+        <v>1206364</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>139019</v>
+        <v>60527</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>256</v>
+        <v>121</v>
       </c>
       <c r="I10" s="7">
-        <v>185382</v>
+        <v>75044</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>393</v>
+        <v>179</v>
       </c>
       <c r="N10" s="7">
-        <v>324401</v>
+        <v>135571</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>392</v>
+        <v>270</v>
       </c>
       <c r="D11" s="7">
-        <v>493761</v>
+        <v>295509</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="I11" s="7">
-        <v>257031</v>
+        <v>247349</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>732</v>
+        <v>572</v>
       </c>
       <c r="N11" s="7">
-        <v>750792</v>
+        <v>542858</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>529</v>
+        <v>328</v>
       </c>
       <c r="D12" s="7">
-        <v>632780</v>
+        <v>356036</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>596</v>
+        <v>423</v>
       </c>
       <c r="I12" s="7">
-        <v>442413</v>
+        <v>322393</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1125</v>
+        <v>751</v>
       </c>
       <c r="N12" s="7">
-        <v>1075193</v>
+        <v>678429</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="D13" s="7">
-        <v>62938</v>
+        <v>131520</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="I13" s="7">
-        <v>82580</v>
+        <v>235952</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>179</v>
+        <v>389</v>
       </c>
       <c r="N13" s="7">
-        <v>145519</v>
+        <v>367473</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1453,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="D14" s="7">
-        <v>304274</v>
+        <v>339571</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1468,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="I14" s="7">
-        <v>240574</v>
+        <v>243645</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1483,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>572</v>
+        <v>691</v>
       </c>
       <c r="N14" s="7">
-        <v>544847</v>
+        <v>583215</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1504,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>328</v>
+        <v>478</v>
       </c>
       <c r="D15" s="7">
-        <v>367212</v>
+        <v>471091</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>423</v>
+        <v>602</v>
       </c>
       <c r="I15" s="7">
-        <v>323154</v>
+        <v>479597</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>751</v>
+        <v>1080</v>
       </c>
       <c r="N15" s="7">
-        <v>690366</v>
+        <v>950688</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>138</v>
+        <v>429</v>
       </c>
       <c r="D16" s="7">
-        <v>141530</v>
+        <v>407985</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>798</v>
+      </c>
+      <c r="I16" s="7">
+        <v>576256</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>251</v>
-      </c>
-      <c r="I16" s="7">
-        <v>197896</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1227</v>
+      </c>
+      <c r="N16" s="7">
+        <v>984242</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>389</v>
-      </c>
-      <c r="N16" s="7">
-        <v>339427</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>340</v>
+        <v>1244</v>
       </c>
       <c r="D17" s="7">
-        <v>352280</v>
+        <v>1557701</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1235</v>
+      </c>
+      <c r="I17" s="7">
+        <v>884679</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>351</v>
-      </c>
-      <c r="I17" s="7">
-        <v>263073</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2479</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2442380</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>691</v>
-      </c>
-      <c r="N17" s="7">
-        <v>615352</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>478</v>
+        <v>1673</v>
       </c>
       <c r="D18" s="7">
-        <v>493810</v>
+        <v>1965686</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>602</v>
+        <v>2033</v>
       </c>
       <c r="I18" s="7">
-        <v>460969</v>
+        <v>1460935</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1080</v>
+        <v>3706</v>
       </c>
       <c r="N18" s="7">
-        <v>954779</v>
+        <v>3426622</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>429</v>
-      </c>
-      <c r="D19" s="7">
-        <v>432964</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>798</v>
-      </c>
-      <c r="I19" s="7">
-        <v>571250</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1227</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1004214</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1244</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1404331</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1235</v>
-      </c>
-      <c r="I20" s="7">
-        <v>930003</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2479</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2334334</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1673</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1837295</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2033</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1501253</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3706</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3338548</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
